--- a/bin/xlsx/任务表.xlsx
+++ b/bin/xlsx/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="杀怪任务" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="40">
   <si>
     <t>INT</t>
   </si>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,19 +155,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修为丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[award]#2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[award]#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下品修为丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,9 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -522,7 +526,7 @@
     <col min="8" max="8" width="15.265625" customWidth="1"/>
     <col min="9" max="9" width="13.59765625" customWidth="1"/>
     <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
@@ -533,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -580,49 +584,49 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -630,87 +634,87 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
       <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
       <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -721,46 +725,46 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -768,49 +772,49 @@
         <v>61000002</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -818,64 +822,65 @@
         <v>61000003</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08A8517-A512-465B-9E1E-908C23C6B1E0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -884,7 +889,7 @@
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,40 +897,234 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>62000001</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
